--- a/terraPenA2 BOM.xlsx
+++ b/terraPenA2 BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aaed67c1e4caeac4/Documents/Projects/DrawingMachinev5/BOM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aaed67c1e4caeac4/Documents/GitHub/terraPen-mechanical-design-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{518CBF12-DDBF-4F3A-84C5-7625A06872CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38D1E9AA-4191-4C01-9B1B-DAEBEDC8EF7C}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{518CBF12-DDBF-4F3A-84C5-7625A06872CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FE38FC8-D865-4F25-9333-5F8C2DD3C713}"/>
   <bookViews>
-    <workbookView xWindow="8316" yWindow="3180" windowWidth="17832" windowHeight="11868" xr2:uid="{0B5A1C9D-D75B-4715-81C2-7A8E498781D0}"/>
+    <workbookView xWindow="22950" yWindow="1260" windowWidth="19170" windowHeight="15345" xr2:uid="{0B5A1C9D-D75B-4715-81C2-7A8E498781D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="248">
   <si>
     <t>Item (part no)</t>
   </si>
@@ -765,6 +765,28 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>Nema 17 motor</t>
+  </si>
+  <si>
+    <t>42x42x37.5</t>
+  </si>
+  <si>
+    <t>X&amp;Y motor
+Motor Type: Bipolar Stepper
+Step Angle: 1.8 deg
+Holding Torque: 44 Ncm(62.32oz.in)
+Rated Current/phase: 1.7 A
+Phase Resistance: 1.86 ohms
+Inductance: 3.55 mH ± 20%(1KHz)</t>
+  </si>
+  <si>
+    <t>37x20.3x26</t>
+  </si>
+  <si>
+    <t>RS PRO Linear Solenoid, 12 V dc
+RS Stock No.: 177-0116</t>
   </si>
 </sst>
 </file>
@@ -837,7 +859,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -876,6 +898,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1214,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2034DC5-91D8-4764-812A-448BE9A0C4F7}">
   <dimension ref="A1:BG70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AO6" sqref="AO6"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BD26" sqref="BD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3211,7 +3236,7 @@
       <c r="AV24" s="7"/>
       <c r="AW24" s="7"/>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>196</v>
       </c>
@@ -3235,6 +3260,18 @@
       </c>
       <c r="AW25" s="7" t="s">
         <v>200</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>244</v>
+      </c>
+      <c r="BA25">
+        <v>2</v>
+      </c>
+      <c r="BB25" s="19" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:55" x14ac:dyDescent="0.25">
@@ -3247,7 +3284,7 @@
       <c r="AV26" s="7"/>
       <c r="AW26" s="7"/>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>201</v>
       </c>
@@ -3271,6 +3308,18 @@
       </c>
       <c r="AW27" s="7" t="s">
         <v>151</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>246</v>
+      </c>
+      <c r="BA27">
+        <v>1</v>
+      </c>
+      <c r="BB27" s="19" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:55" x14ac:dyDescent="0.25">
